--- a/data/pca/factorExposure/factorExposure_2018-05-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-05-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -698,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -723,79 +726,91 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01330160840252612</v>
+        <v>0.01843213902786197</v>
       </c>
       <c r="C2">
-        <v>-0.02624486849903782</v>
+        <v>-0.01664962347277773</v>
       </c>
       <c r="D2">
-        <v>0.009869242950804392</v>
+        <v>0.03057876071737402</v>
       </c>
       <c r="E2">
-        <v>0.01315786770545782</v>
+        <v>0.01594529462686248</v>
       </c>
       <c r="F2">
-        <v>0.115277705201721</v>
+        <v>-0.00570042788579765</v>
       </c>
       <c r="G2">
-        <v>0.07025031609370842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>-0.04609854774655109</v>
+      </c>
+      <c r="H2">
+        <v>0.04837671156279525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.08800134771785077</v>
+        <v>0.07948962278935565</v>
       </c>
       <c r="C3">
-        <v>-0.01411683454173789</v>
+        <v>0.01518506341552303</v>
       </c>
       <c r="D3">
-        <v>0.06868064251779532</v>
+        <v>0.06076381619921064</v>
       </c>
       <c r="E3">
-        <v>0.09182357736473712</v>
+        <v>0.01208085974384972</v>
       </c>
       <c r="F3">
-        <v>0.4046249896717666</v>
+        <v>0.01575432250185141</v>
       </c>
       <c r="G3">
-        <v>0.2440128144294191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-0.1773920622841434</v>
+      </c>
+      <c r="H3">
+        <v>0.1509892186010271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04105519019193964</v>
+        <v>0.04605811339919252</v>
       </c>
       <c r="C4">
-        <v>0.000524663374893155</v>
+        <v>-0.001291870055669626</v>
       </c>
       <c r="D4">
-        <v>0.0001430455137061163</v>
+        <v>0.05828239510180007</v>
       </c>
       <c r="E4">
-        <v>-0.04720387766249147</v>
+        <v>-0.01865842847167018</v>
       </c>
       <c r="F4">
-        <v>0.08019193655990259</v>
+        <v>-0.04552932897819919</v>
       </c>
       <c r="G4">
-        <v>0.04576062740553933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>-0.03963603144458352</v>
+      </c>
+      <c r="H4">
+        <v>0.05810969533448387</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -815,217 +830,247 @@
       <c r="G5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.02975597484194121</v>
+        <v>0.02725854481494255</v>
       </c>
       <c r="C6">
-        <v>-0.009186705414372696</v>
+        <v>0.001599641969089126</v>
       </c>
       <c r="D6">
-        <v>0.007464804512012227</v>
+        <v>0.05990894342614034</v>
       </c>
       <c r="E6">
-        <v>-0.02290486137676918</v>
+        <v>-0.004115663121965153</v>
       </c>
       <c r="F6">
-        <v>0.01307222645913185</v>
+        <v>-0.03076781376465601</v>
       </c>
       <c r="G6">
-        <v>-0.01461724860380777</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>-0.01045550496044957</v>
+      </c>
+      <c r="H6">
+        <v>0.06250196860666273</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.0186470011889378</v>
+        <v>0.02144910329696582</v>
       </c>
       <c r="C7">
-        <v>-0.001608850092501485</v>
+        <v>-0.000718898464241821</v>
       </c>
       <c r="D7">
-        <v>0.0169718322431663</v>
+        <v>0.03094184986538315</v>
       </c>
       <c r="E7">
-        <v>-0.02511400277339419</v>
+        <v>-0.0420977109635877</v>
       </c>
       <c r="F7">
-        <v>0.05169795938850236</v>
+        <v>-0.002760444892889453</v>
       </c>
       <c r="G7">
-        <v>0.06561138150562131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>-0.02496683676577757</v>
+      </c>
+      <c r="H7">
+        <v>0.03909370592740471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.01554253513421768</v>
+        <v>0.006659780012634485</v>
       </c>
       <c r="C8">
-        <v>-0.008994249487686855</v>
+        <v>0.002927670423089413</v>
       </c>
       <c r="D8">
-        <v>0.01204829139869358</v>
+        <v>0.01428165076264142</v>
       </c>
       <c r="E8">
-        <v>-0.03497921391986631</v>
+        <v>-0.005804280811620023</v>
       </c>
       <c r="F8">
-        <v>0.1020490586896414</v>
+        <v>-0.01962866278579461</v>
       </c>
       <c r="G8">
-        <v>0.05332372343136607</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>-0.04210507196394962</v>
+      </c>
+      <c r="H8">
+        <v>0.04321738367499927</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03130875192867812</v>
+        <v>0.03614176644648964</v>
       </c>
       <c r="C9">
-        <v>-0.005232587791223696</v>
+        <v>0.001297596594101562</v>
       </c>
       <c r="D9">
-        <v>0.007752329409890686</v>
+        <v>0.04211285036981087</v>
       </c>
       <c r="E9">
-        <v>-0.03657557860918612</v>
+        <v>-0.007210320576976833</v>
       </c>
       <c r="F9">
-        <v>0.09811654988555633</v>
+        <v>-0.02238077320867585</v>
       </c>
       <c r="G9">
-        <v>0.04554135061180245</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>-0.04609736435034603</v>
+      </c>
+      <c r="H9">
+        <v>0.05674078774833468</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03703514593003085</v>
+        <v>0.1057311588134063</v>
       </c>
       <c r="C10">
-        <v>0.06950030150575935</v>
+        <v>0.0002465860426847361</v>
       </c>
       <c r="D10">
-        <v>-0.07596378275885846</v>
+        <v>-0.1663544262141119</v>
       </c>
       <c r="E10">
-        <v>0.1258599342117307</v>
+        <v>0.001241505144980648</v>
       </c>
       <c r="F10">
-        <v>0.04759917761805209</v>
+        <v>0.03590301065273899</v>
       </c>
       <c r="G10">
-        <v>0.01949361350947864</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>-0.03291358668847831</v>
+      </c>
+      <c r="H10">
+        <v>0.002722571268952199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03094455474646833</v>
+        <v>0.02248672087082037</v>
       </c>
       <c r="C11">
-        <v>-0.02198288845002721</v>
+        <v>0.01260072563349053</v>
       </c>
       <c r="D11">
-        <v>0.01479330006013125</v>
+        <v>0.04617173115672735</v>
       </c>
       <c r="E11">
-        <v>-0.02749444205948646</v>
+        <v>0.001699807120485192</v>
       </c>
       <c r="F11">
-        <v>0.05296550106888229</v>
+        <v>-0.01222069629433574</v>
       </c>
       <c r="G11">
-        <v>0.02189522862572405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>-0.02713837598762136</v>
+      </c>
+      <c r="H11">
+        <v>0.04970682350376442</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03936085807408037</v>
+        <v>0.02740306405136591</v>
       </c>
       <c r="C12">
-        <v>-0.02553159674065309</v>
+        <v>0.009034237825535533</v>
       </c>
       <c r="D12">
-        <v>0.00804226466697053</v>
+        <v>0.04437022096384598</v>
       </c>
       <c r="E12">
-        <v>-0.03495519702132571</v>
+        <v>-0.008203870640256627</v>
       </c>
       <c r="F12">
-        <v>0.02564450077008903</v>
+        <v>-0.01499526377203553</v>
       </c>
       <c r="G12">
-        <v>0.01361509343315408</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>-0.007397714108972048</v>
+      </c>
+      <c r="H12">
+        <v>0.02149541476508517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.0135469469875055</v>
+        <v>0.02871334053737904</v>
       </c>
       <c r="C13">
-        <v>-0.02057290418997881</v>
+        <v>-0.0123454974312521</v>
       </c>
       <c r="D13">
-        <v>-0.004042518141506232</v>
+        <v>0.01918611478682939</v>
       </c>
       <c r="E13">
-        <v>0.0005585041025438037</v>
+        <v>0.01300513045113624</v>
       </c>
       <c r="F13">
-        <v>0.08699940529176603</v>
+        <v>-0.02272650463114999</v>
       </c>
       <c r="G13">
-        <v>0.04633745742220268</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>-0.06133189642012323</v>
+      </c>
+      <c r="H13">
+        <v>0.0748840410588157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.0147257949761327</v>
+        <v>0.01883670589988256</v>
       </c>
       <c r="C14">
-        <v>-0.0001110825446181163</v>
+        <v>-2.890410801710461e-05</v>
       </c>
       <c r="D14">
-        <v>0.001014075361179756</v>
+        <v>0.01209709660203507</v>
       </c>
       <c r="E14">
-        <v>-0.02828748095575019</v>
+        <v>-0.01274044437232381</v>
       </c>
       <c r="F14">
-        <v>0.06020917762509912</v>
+        <v>-0.0149603407826326</v>
       </c>
       <c r="G14">
-        <v>0.05219267261922083</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>-0.03937260183473743</v>
+      </c>
+      <c r="H14">
+        <v>0.01291391566656821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1045,33 +1090,39 @@
       <c r="G15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.02947185664313057</v>
+        <v>0.02408275255748257</v>
       </c>
       <c r="C16">
-        <v>-0.0281389615569406</v>
+        <v>0.0118903980026598</v>
       </c>
       <c r="D16">
-        <v>0.01243649099897008</v>
+        <v>0.03758143859167734</v>
       </c>
       <c r="E16">
-        <v>-0.02907170927476751</v>
+        <v>-0.001923619882178674</v>
       </c>
       <c r="F16">
-        <v>0.05119844980899354</v>
+        <v>-0.01570401947419636</v>
       </c>
       <c r="G16">
-        <v>0.02060122849977235</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>-0.02231813861112262</v>
+      </c>
+      <c r="H16">
+        <v>0.03732062982588737</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1091,10 +1142,13 @@
       <c r="G17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1114,79 +1168,91 @@
       <c r="G18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.03161991423481162</v>
+        <v>0.03104235223387893</v>
       </c>
       <c r="C19">
-        <v>-0.02201281551981186</v>
+        <v>0.001489944328688544</v>
       </c>
       <c r="D19">
-        <v>0.0150774819477597</v>
+        <v>0.03781738483174832</v>
       </c>
       <c r="E19">
-        <v>-0.02245360924663983</v>
+        <v>-0.004201749071490506</v>
       </c>
       <c r="F19">
-        <v>0.1038439424896938</v>
+        <v>-0.02571272575672952</v>
       </c>
       <c r="G19">
-        <v>0.0575556798158099</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>-0.05645176296804433</v>
+      </c>
+      <c r="H19">
+        <v>0.0623907131139964</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.003723104541870757</v>
+        <v>0.01126146748043844</v>
       </c>
       <c r="C20">
-        <v>0.001759611964221168</v>
+        <v>-0.004126043799230251</v>
       </c>
       <c r="D20">
-        <v>0.001249887130760527</v>
+        <v>0.02107926847265221</v>
       </c>
       <c r="E20">
-        <v>-0.02101326527395465</v>
+        <v>-0.003960142187593062</v>
       </c>
       <c r="F20">
-        <v>0.0807072479981132</v>
+        <v>-0.01498902714182677</v>
       </c>
       <c r="G20">
-        <v>0.0775437616109222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>-0.05288081244768301</v>
+      </c>
+      <c r="H20">
+        <v>0.02798654976481223</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.0003816262674580253</v>
+        <v>0.01731870633552348</v>
       </c>
       <c r="C21">
-        <v>0.01552601808265536</v>
+        <v>-0.005409925165398965</v>
       </c>
       <c r="D21">
-        <v>0.0252453716379911</v>
+        <v>0.0226962365206472</v>
       </c>
       <c r="E21">
-        <v>-0.03020627942791772</v>
+        <v>-0.01826702035538949</v>
       </c>
       <c r="F21">
-        <v>0.04036622204130601</v>
+        <v>-0.008647564506505327</v>
       </c>
       <c r="G21">
-        <v>0.01327045095388918</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>-0.04784164880114485</v>
+      </c>
+      <c r="H21">
+        <v>0.04226279256798967</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1206,10 +1272,13 @@
       <c r="G22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1229,263 +1298,299 @@
       <c r="G23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.02759778471141255</v>
+        <v>0.0195029610462188</v>
       </c>
       <c r="C24">
-        <v>-0.01921694170642963</v>
+        <v>0.006542553750949373</v>
       </c>
       <c r="D24">
-        <v>0.002559728049702142</v>
+        <v>0.04138491337806713</v>
       </c>
       <c r="E24">
-        <v>-0.0159187190304994</v>
+        <v>-0.0002153341588097237</v>
       </c>
       <c r="F24">
-        <v>0.04971253354131314</v>
+        <v>-0.01082839811957201</v>
       </c>
       <c r="G24">
-        <v>0.01937953685427678</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>-0.01703436015958368</v>
+      </c>
+      <c r="H24">
+        <v>0.04608361961221116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.02877210852351784</v>
+        <v>0.03177137302020274</v>
       </c>
       <c r="C25">
-        <v>-0.01633080626333179</v>
+        <v>0.004501891599201532</v>
       </c>
       <c r="D25">
-        <v>0.01802290009714966</v>
+        <v>0.04255824891277504</v>
       </c>
       <c r="E25">
-        <v>-0.02617507920225562</v>
+        <v>-0.005543417225759059</v>
       </c>
       <c r="F25">
-        <v>0.05223288900651157</v>
+        <v>-0.01847156064504674</v>
       </c>
       <c r="G25">
-        <v>0.01182109067187769</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>-0.02135363646588123</v>
+      </c>
+      <c r="H25">
+        <v>0.04274032759928705</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01789428866030447</v>
+        <v>0.01735254284687123</v>
       </c>
       <c r="C26">
-        <v>-0.01583283589766748</v>
+        <v>-0.0181150712194399</v>
       </c>
       <c r="D26">
-        <v>0.01829563014743274</v>
+        <v>0.008374738323037317</v>
       </c>
       <c r="E26">
-        <v>0.001350281991866425</v>
+        <v>6.473486078221641e-05</v>
       </c>
       <c r="F26">
-        <v>0.06883132713941457</v>
+        <v>-0.002792311522642026</v>
       </c>
       <c r="G26">
-        <v>0.04513340034189937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>-0.029774456703917</v>
+      </c>
+      <c r="H26">
+        <v>0.02426089026804595</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27">
-        <v>0.05220159644079512</v>
+        <v>0.02069680402765457</v>
       </c>
       <c r="C27">
-        <v>-0.01700439418280022</v>
+        <v>0.007921173652852996</v>
       </c>
       <c r="D27">
-        <v>-0.02171145535744619</v>
+        <v>0.01391663207889205</v>
       </c>
       <c r="E27">
-        <v>-0.03755792176556525</v>
+        <v>-0.002845053264783992</v>
       </c>
       <c r="F27">
-        <v>0.04243313874310099</v>
+        <v>-0.0119590227687946</v>
       </c>
       <c r="G27">
-        <v>0.05117565813438568</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>-0.009287566099113798</v>
+      </c>
+      <c r="H27">
+        <v>-0.004508170010386349</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.066723784990097</v>
+        <v>0.1565571667647906</v>
       </c>
       <c r="C28">
-        <v>0.09618525181927644</v>
+        <v>-0.008809464360833467</v>
       </c>
       <c r="D28">
-        <v>-0.1046795760631008</v>
+        <v>-0.2181269738386291</v>
       </c>
       <c r="E28">
-        <v>0.1563159792788579</v>
+        <v>-0.007623817231731803</v>
       </c>
       <c r="F28">
-        <v>0.04470354580939941</v>
+        <v>0.0314873366064116</v>
       </c>
       <c r="G28">
-        <v>0.01746643179691152</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>-0.02046200294636701</v>
+      </c>
+      <c r="H28">
+        <v>-0.007493231451565002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.0196539274066493</v>
+        <v>0.023767077077549</v>
       </c>
       <c r="C29">
-        <v>0.000468344971327303</v>
+        <v>0.001658513444603831</v>
       </c>
       <c r="D29">
-        <v>0.0005130021567190293</v>
+        <v>0.01206314792143086</v>
       </c>
       <c r="E29">
-        <v>-0.03596904389528463</v>
+        <v>-0.01316076075026147</v>
       </c>
       <c r="F29">
-        <v>0.05939914121983664</v>
+        <v>-0.01666910262496973</v>
       </c>
       <c r="G29">
-        <v>0.03977503363754666</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>-0.03830392284377233</v>
+      </c>
+      <c r="H29">
+        <v>0.004577625739554962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.08012503101993608</v>
+        <v>0.05241476475801774</v>
       </c>
       <c r="C30">
-        <v>-0.04778401551028626</v>
+        <v>0.002221958527157436</v>
       </c>
       <c r="D30">
-        <v>-3.558880535860238e-05</v>
+        <v>0.08992233497894339</v>
       </c>
       <c r="E30">
-        <v>-0.05984698870216062</v>
+        <v>0.03244243113253835</v>
       </c>
       <c r="F30">
-        <v>0.1099079412441341</v>
+        <v>-0.04889974689660256</v>
       </c>
       <c r="G30">
-        <v>0.05790728259758439</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>-0.05908267888909238</v>
+      </c>
+      <c r="H30">
+        <v>0.07855688556346134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.05721264941793096</v>
+        <v>0.05009107509361279</v>
       </c>
       <c r="C31">
-        <v>-0.03281228514674721</v>
+        <v>0.01165958919909621</v>
       </c>
       <c r="D31">
-        <v>0.003633181836178259</v>
+        <v>0.02439428846156082</v>
       </c>
       <c r="E31">
-        <v>-0.01115421700957052</v>
+        <v>0.005200863077181639</v>
       </c>
       <c r="F31">
-        <v>0.0508510914193326</v>
+        <v>-0.005869839415836874</v>
       </c>
       <c r="G31">
-        <v>0.05256110224074853</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+        <v>-0.018546470401618</v>
+      </c>
+      <c r="H31">
+        <v>0.002243023653382322</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.01606434871243981</v>
+        <v>0.01125120824181044</v>
       </c>
       <c r="C32">
-        <v>-0.003682824688699978</v>
+        <v>0.01391820232502459</v>
       </c>
       <c r="D32">
-        <v>0.01720577920618449</v>
+        <v>0.01094914316037954</v>
       </c>
       <c r="E32">
-        <v>-0.06993640369223807</v>
+        <v>-0.02914969979774182</v>
       </c>
       <c r="F32">
-        <v>0.07898105310637278</v>
+        <v>-0.04022878237471132</v>
       </c>
       <c r="G32">
-        <v>0.0410138599778852</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>-0.03036183048881533</v>
+      </c>
+      <c r="H32">
+        <v>0.05738230288231353</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.04167714452988051</v>
+        <v>0.03468514316824262</v>
       </c>
       <c r="C33">
-        <v>-0.03650943558587149</v>
+        <v>0.002143341555583356</v>
       </c>
       <c r="D33">
-        <v>0.03679113476203033</v>
+        <v>0.03938054292699875</v>
       </c>
       <c r="E33">
-        <v>-0.02196809731973432</v>
+        <v>0.02195538619632731</v>
       </c>
       <c r="F33">
-        <v>0.08379929246333573</v>
+        <v>-4.409133033332536e-05</v>
       </c>
       <c r="G33">
-        <v>0.05655376060179971</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+        <v>-0.04680872276198286</v>
+      </c>
+      <c r="H33">
+        <v>0.04938784339256942</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.02699495526307275</v>
+        <v>0.02950035068196752</v>
       </c>
       <c r="C34">
-        <v>-0.02222895245821909</v>
+        <v>0.02025651578413447</v>
       </c>
       <c r="D34">
-        <v>0.01181902241056075</v>
+        <v>0.03846968449991538</v>
       </c>
       <c r="E34">
-        <v>-0.03276079387445723</v>
+        <v>-0.01169947034138113</v>
       </c>
       <c r="F34">
-        <v>0.05743969984764336</v>
+        <v>-0.01811877255065931</v>
       </c>
       <c r="G34">
-        <v>0.01925360210931258</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>-0.01357390071772213</v>
+      </c>
+      <c r="H34">
+        <v>0.03671927326212674</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1505,33 +1610,39 @@
       <c r="G35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01384242477721827</v>
+        <v>0.01834413003552766</v>
       </c>
       <c r="C36">
-        <v>0.0004293129259530595</v>
+        <v>-0.005821968113122323</v>
       </c>
       <c r="D36">
-        <v>0.006073287012456571</v>
+        <v>0.003947142961162642</v>
       </c>
       <c r="E36">
-        <v>-0.02163538564413968</v>
+        <v>-0.007619523677142865</v>
       </c>
       <c r="F36">
-        <v>0.03889532489588286</v>
+        <v>-0.002737066851097717</v>
       </c>
       <c r="G36">
-        <v>0.03099173129809805</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>-0.02115510763160784</v>
+      </c>
+      <c r="H36">
+        <v>0.0159596793256141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1551,171 +1662,195 @@
       <c r="G37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.001288325286995952</v>
+        <v>0.02658990742081405</v>
       </c>
       <c r="C38">
-        <v>0.001301410678439245</v>
+        <v>0.01653534172455268</v>
       </c>
       <c r="D38">
-        <v>0.01535260325458817</v>
+        <v>0.01179706003863206</v>
       </c>
       <c r="E38">
-        <v>0.03078757978420567</v>
+        <v>0.0003185511914395094</v>
       </c>
       <c r="F38">
-        <v>0.03841960878159402</v>
+        <v>-0.009349035948685854</v>
       </c>
       <c r="G38">
-        <v>0.01089665356081358</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>-0.0227855853574079</v>
+      </c>
+      <c r="H38">
+        <v>0.04484377505409273</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.0291694396116031</v>
+        <v>0.01829639046001111</v>
       </c>
       <c r="C39">
-        <v>-0.03842229480401575</v>
+        <v>0.009971360485940916</v>
       </c>
       <c r="D39">
-        <v>0.01896380967407359</v>
+        <v>0.08637666053031978</v>
       </c>
       <c r="E39">
-        <v>-0.03345005568189681</v>
+        <v>0.00776628249939594</v>
       </c>
       <c r="F39">
-        <v>0.06941313441076039</v>
+        <v>-0.01815445158478691</v>
       </c>
       <c r="G39">
-        <v>0.02592152252077072</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>-0.03922206514190076</v>
+      </c>
+      <c r="H39">
+        <v>0.07826313483317934</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.0317403571904281</v>
+        <v>0.03092374646372537</v>
       </c>
       <c r="C40">
-        <v>-0.0645672927056533</v>
+        <v>0.002567993166586333</v>
       </c>
       <c r="D40">
-        <v>-0.01652374342580844</v>
+        <v>0.03122172573086269</v>
       </c>
       <c r="E40">
-        <v>-0.004941140382485315</v>
+        <v>0.02545248652320924</v>
       </c>
       <c r="F40">
-        <v>0.09071332807942126</v>
+        <v>-0.03496771149099363</v>
       </c>
       <c r="G40">
-        <v>0.04634033421672888</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>-0.02139981736444561</v>
+      </c>
+      <c r="H40">
+        <v>0.06538407719738062</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.00098185307508638</v>
+        <v>0.01158482398372102</v>
       </c>
       <c r="C41">
-        <v>-0.0004866789608202638</v>
+        <v>-0.003181035481464824</v>
       </c>
       <c r="D41">
-        <v>0.009926368072441797</v>
+        <v>-0.01460391316686554</v>
       </c>
       <c r="E41">
-        <v>-0.0006008773905567458</v>
+        <v>0.0005600028770068502</v>
       </c>
       <c r="F41">
-        <v>0.01520641336322731</v>
+        <v>0.003305462921444467</v>
       </c>
       <c r="G41">
-        <v>0.05336011611778746</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>-0.001318110728607498</v>
+      </c>
+      <c r="H41">
+        <v>-0.005589548126328423</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3467069190388353</v>
+        <v>0.1643062193800434</v>
       </c>
       <c r="C42">
-        <v>0.04361025882603062</v>
+        <v>-0.06216769857184432</v>
       </c>
       <c r="D42">
-        <v>0.7251760661532479</v>
+        <v>0.2395819347746146</v>
       </c>
       <c r="E42">
-        <v>0.4392223861668577</v>
+        <v>0.214126629963387</v>
       </c>
       <c r="F42">
-        <v>-0.3048179962781223</v>
+        <v>0.8991317171808058</v>
       </c>
       <c r="G42">
-        <v>0.1648344163551087</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.1918466577278129</v>
+      </c>
+      <c r="H42">
+        <v>0.003807868721606521</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>1.605955668408568e-05</v>
+        <v>0.01459710428810972</v>
       </c>
       <c r="C43">
-        <v>-0.0005368512137951041</v>
+        <v>-0.0031015428328646</v>
       </c>
       <c r="D43">
-        <v>0.01138798107925731</v>
+        <v>-0.012635339479692</v>
       </c>
       <c r="E43">
-        <v>0.0001335351702384283</v>
+        <v>0.003601696997460244</v>
       </c>
       <c r="F43">
-        <v>0.03324883719972121</v>
+        <v>0.004384561403162899</v>
       </c>
       <c r="G43">
-        <v>0.0494416187838461</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>-0.00276784545983188</v>
+      </c>
+      <c r="H43">
+        <v>0.008068313470174053</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01589446036188036</v>
+        <v>0.01986093819404445</v>
       </c>
       <c r="C44">
-        <v>0.001992453414679496</v>
+        <v>0.006534993486011214</v>
       </c>
       <c r="D44">
-        <v>0.0129423161015723</v>
+        <v>0.034316848369512</v>
       </c>
       <c r="E44">
-        <v>-0.0003732606820208734</v>
+        <v>-0.00593758389482035</v>
       </c>
       <c r="F44">
-        <v>0.1140430926349352</v>
+        <v>-0.002577611271904051</v>
       </c>
       <c r="G44">
-        <v>0.08300982879777749</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>-0.04218897768488011</v>
+      </c>
+      <c r="H44">
+        <v>0.06582446499244458</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1735,79 +1870,91 @@
       <c r="G45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01927188430464838</v>
+        <v>0.01596830799363833</v>
       </c>
       <c r="C46">
-        <v>-0.01600274263535869</v>
+        <v>-0.004376981166237304</v>
       </c>
       <c r="D46">
-        <v>0.02065094836779554</v>
+        <v>0.01304887541276861</v>
       </c>
       <c r="E46">
-        <v>-0.03620701380124598</v>
+        <v>0.001263054355310825</v>
       </c>
       <c r="F46">
-        <v>0.07768867801470197</v>
+        <v>-0.01197518668296529</v>
       </c>
       <c r="G46">
-        <v>0.05345486869987726</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>-0.04410490464199215</v>
+      </c>
+      <c r="H46">
+        <v>0.007648114889644189</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09062083552421789</v>
+        <v>0.07353539540205406</v>
       </c>
       <c r="C47">
-        <v>-0.03067237926769872</v>
+        <v>0.02887446287719304</v>
       </c>
       <c r="D47">
-        <v>-0.004182523394838668</v>
+        <v>0.04825937598674193</v>
       </c>
       <c r="E47">
-        <v>-0.0287459318867151</v>
+        <v>-0.001551138474615633</v>
       </c>
       <c r="F47">
-        <v>0.041355722121422</v>
+        <v>-0.01445367894937005</v>
       </c>
       <c r="G47">
-        <v>0.08442495943462995</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.008733793432308229</v>
+      </c>
+      <c r="H47">
+        <v>-0.02372552635280775</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.01776907143118669</v>
+        <v>0.02111797472084472</v>
       </c>
       <c r="C48">
-        <v>-0.008010064244972286</v>
+        <v>0.005793685063795145</v>
       </c>
       <c r="D48">
-        <v>0.0115445781274846</v>
+        <v>0.01104149037982767</v>
       </c>
       <c r="E48">
-        <v>-0.02031478689706686</v>
+        <v>-0.0001634820802267349</v>
       </c>
       <c r="F48">
-        <v>0.0418553175649539</v>
+        <v>-0.007238234480877946</v>
       </c>
       <c r="G48">
-        <v>0.02365575586790981</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>-0.02294209112094198</v>
+      </c>
+      <c r="H48">
+        <v>0.01785311579914208</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1827,56 +1974,65 @@
       <c r="G49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08596191351027653</v>
+        <v>0.07147625561807569</v>
       </c>
       <c r="C50">
-        <v>-0.0299382084224639</v>
+        <v>0.02579465947258337</v>
       </c>
       <c r="D50">
-        <v>0.01965629956295574</v>
+        <v>0.04712957210881209</v>
       </c>
       <c r="E50">
-        <v>-0.02820957323726203</v>
+        <v>-0.01428940669983377</v>
       </c>
       <c r="F50">
-        <v>0.04503481288238672</v>
+        <v>-0.005019841157633235</v>
       </c>
       <c r="G50">
-        <v>0.0375035542267767</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>-0.005844265258549692</v>
+      </c>
+      <c r="H50">
+        <v>-0.006290881343013919</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01531420052656092</v>
+        <v>0.02081322064874889</v>
       </c>
       <c r="C51">
-        <v>0.00516897658755308</v>
+        <v>-0.0003896240362971484</v>
       </c>
       <c r="D51">
-        <v>-0.00458974730176868</v>
+        <v>0.006975617499160722</v>
       </c>
       <c r="E51">
-        <v>0.01416113834090433</v>
+        <v>-0.005784852538531051</v>
       </c>
       <c r="F51">
-        <v>0.09612753046267992</v>
+        <v>-0.004545449992041199</v>
       </c>
       <c r="G51">
-        <v>0.06524747991739104</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>-0.03824530349669025</v>
+      </c>
+      <c r="H51">
+        <v>0.05057568595835609</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1896,217 +2052,247 @@
       <c r="G52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.09970294056855672</v>
+        <v>0.08805207418825574</v>
       </c>
       <c r="C53">
-        <v>-0.04145203357888848</v>
+        <v>0.03719417325154181</v>
       </c>
       <c r="D53">
-        <v>0.0009627055184738095</v>
+        <v>0.08401352250467932</v>
       </c>
       <c r="E53">
-        <v>-0.04673566476571349</v>
+        <v>-0.004033625803486189</v>
       </c>
       <c r="F53">
-        <v>-0.02643837361627056</v>
+        <v>-0.02843180302521208</v>
       </c>
       <c r="G53">
-        <v>0.02086558344418775</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.03812485434466464</v>
+      </c>
+      <c r="H53">
+        <v>-0.03604805072968691</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.01568300418750166</v>
+        <v>0.028511535011321</v>
       </c>
       <c r="C54">
-        <v>0.002946841455075004</v>
+        <v>0.008197190116680513</v>
       </c>
       <c r="D54">
-        <v>-0.0001461374118528323</v>
+        <v>-0.0121038931162788</v>
       </c>
       <c r="E54">
-        <v>-0.02930138945753873</v>
+        <v>-0.006400087350159776</v>
       </c>
       <c r="F54">
-        <v>0.04951644587996281</v>
+        <v>-0.006760183759195153</v>
       </c>
       <c r="G54">
-        <v>0.04782447812633246</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>-0.03811227060559542</v>
+      </c>
+      <c r="H54">
+        <v>0.001251574832153561</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1001387968162293</v>
+        <v>0.07397662161976358</v>
       </c>
       <c r="C55">
-        <v>-0.02191329411148793</v>
+        <v>0.03361622056628634</v>
       </c>
       <c r="D55">
-        <v>0.006925530581267162</v>
+        <v>0.07900737637751194</v>
       </c>
       <c r="E55">
-        <v>-0.06500238260302495</v>
+        <v>-0.01269216630015079</v>
       </c>
       <c r="F55">
-        <v>-0.01747210371651987</v>
+        <v>-0.02097313055318064</v>
       </c>
       <c r="G55">
-        <v>0.04830156340187647</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.01609063541739754</v>
+      </c>
+      <c r="H55">
+        <v>-0.04513794704280891</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1419678497884126</v>
+        <v>0.1218144917595363</v>
       </c>
       <c r="C56">
-        <v>-0.0560598781113529</v>
+        <v>0.05530379525708493</v>
       </c>
       <c r="D56">
-        <v>-0.03871639090231437</v>
+        <v>0.1017210940912555</v>
       </c>
       <c r="E56">
-        <v>-0.07496093155048568</v>
+        <v>-0.005593398695359553</v>
       </c>
       <c r="F56">
-        <v>-0.05984063375007787</v>
+        <v>-0.05265740212467219</v>
       </c>
       <c r="G56">
-        <v>-0.02531900793457638</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.07292127360697799</v>
+      </c>
+      <c r="H56">
+        <v>-0.06050235515890352</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B57">
-        <v>0.04345568753375041</v>
+        <v>0.03672155842937116</v>
       </c>
       <c r="C57">
-        <v>-0.02082698965866916</v>
+        <v>-0.01095694564897497</v>
       </c>
       <c r="D57">
-        <v>0.0114505595085095</v>
+        <v>0.03250280647221484</v>
       </c>
       <c r="E57">
-        <v>0.0140363456845462</v>
+        <v>0.01139547132690069</v>
       </c>
       <c r="F57">
-        <v>0.05557195008911985</v>
+        <v>-0.008437418502078882</v>
       </c>
       <c r="G57">
-        <v>0.03974761176929052</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>-0.0719079167160377</v>
+      </c>
+      <c r="H57">
+        <v>0.04963832637989036</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.2155905216599577</v>
+        <v>0.1358389463648501</v>
       </c>
       <c r="C58">
-        <v>-0.1194093637208299</v>
+        <v>0.04826229495496062</v>
       </c>
       <c r="D58">
-        <v>0.0975678580230924</v>
+        <v>0.1597338681520594</v>
       </c>
       <c r="E58">
-        <v>-0.08309344650159191</v>
+        <v>0.2166812749436501</v>
       </c>
       <c r="F58">
-        <v>0.4000948630611292</v>
+        <v>0.06631016832611245</v>
       </c>
       <c r="G58">
-        <v>-0.03127920238857954</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>-0.8120471732754805</v>
+      </c>
+      <c r="H58">
+        <v>-0.3924142849275066</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.05704639380593556</v>
+        <v>0.1681098969643696</v>
       </c>
       <c r="C59">
-        <v>0.04973583063428122</v>
+        <v>-0.0001361204752687433</v>
       </c>
       <c r="D59">
-        <v>-0.1187719497314892</v>
+        <v>-0.2171857896062191</v>
       </c>
       <c r="E59">
-        <v>0.1429012382859437</v>
+        <v>0.01159111258755436</v>
       </c>
       <c r="F59">
-        <v>0.06435032198416032</v>
+        <v>0.002994473863442771</v>
       </c>
       <c r="G59">
-        <v>-0.02408866519348464</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>-0.02093051455757224</v>
+      </c>
+      <c r="H59">
+        <v>0.02735056572017348</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1520696125884425</v>
+        <v>0.1915705067734141</v>
       </c>
       <c r="C60">
-        <v>-0.0805697561509187</v>
+        <v>0.02840307126239502</v>
       </c>
       <c r="D60">
-        <v>0.01448335977483997</v>
+        <v>0.02687439594400526</v>
       </c>
       <c r="E60">
-        <v>0.09477221725282635</v>
+        <v>0.05190205499816906</v>
       </c>
       <c r="F60">
-        <v>0.172525774901981</v>
+        <v>-0.05446199296384391</v>
       </c>
       <c r="G60">
-        <v>-0.3149404359744131</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>-0.02555176536421108</v>
+      </c>
+      <c r="H60">
+        <v>0.3703849174652265</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.02112011693780364</v>
+        <v>0.02299912934925777</v>
       </c>
       <c r="C61">
-        <v>-0.02378229554962987</v>
+        <v>0.01187979648271866</v>
       </c>
       <c r="D61">
-        <v>0.01376000392325823</v>
+        <v>0.05380613358057433</v>
       </c>
       <c r="E61">
-        <v>-0.022758870266544</v>
+        <v>-0.001717010991441081</v>
       </c>
       <c r="F61">
-        <v>0.03430031624144957</v>
+        <v>-0.02175054933726293</v>
       </c>
       <c r="G61">
-        <v>0.008746068604020734</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>-0.02547332831522441</v>
+      </c>
+      <c r="H61">
+        <v>0.05876101325381246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2126,171 +2312,195 @@
       <c r="G62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:7">
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.00859694048162052</v>
+        <v>0.01265236251589242</v>
       </c>
       <c r="C63">
-        <v>-0.01658931278311648</v>
+        <v>-0.0007713403360534378</v>
       </c>
       <c r="D63">
-        <v>0.02023337281169621</v>
+        <v>0.02231177218957074</v>
       </c>
       <c r="E63">
-        <v>-0.02369382155708209</v>
+        <v>-0.004512094719183424</v>
       </c>
       <c r="F63">
-        <v>0.01444711390982356</v>
+        <v>-0.01106553069810516</v>
       </c>
       <c r="G63">
-        <v>0.07133746209265301</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>-0.0167994100857855</v>
+      </c>
+      <c r="H63">
+        <v>0.01264747573274278</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.03697286623771787</v>
+        <v>0.0411340140919853</v>
       </c>
       <c r="C64">
-        <v>0.004004287057702874</v>
+        <v>0.01132416163438118</v>
       </c>
       <c r="D64">
-        <v>0.004510966905611653</v>
+        <v>0.03887952017341943</v>
       </c>
       <c r="E64">
-        <v>-0.05328013498091915</v>
+        <v>-0.01128731034015105</v>
       </c>
       <c r="F64">
-        <v>0.04353763569084741</v>
+        <v>-0.003843236540862569</v>
       </c>
       <c r="G64">
-        <v>0.05902360078111772</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>-0.005931845251677447</v>
+      </c>
+      <c r="H64">
+        <v>0.04127197631780141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.03322431721502248</v>
+        <v>0.0387408755339415</v>
       </c>
       <c r="C65">
-        <v>-0.01113430565046832</v>
+        <v>0.004312212774667902</v>
       </c>
       <c r="D65">
-        <v>0.007417442190247938</v>
+        <v>0.07159933256711924</v>
       </c>
       <c r="E65">
-        <v>-0.0248913985719137</v>
+        <v>-0.007693206013396982</v>
       </c>
       <c r="F65">
-        <v>0.007911373684316787</v>
+        <v>-0.03894157432937975</v>
       </c>
       <c r="G65">
-        <v>-0.02074261879386308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>0.005243691136767336</v>
+      </c>
+      <c r="H65">
+        <v>0.07383165251286672</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.03277422451257557</v>
+        <v>0.02791133534399037</v>
       </c>
       <c r="C66">
-        <v>-0.0516958205484628</v>
+        <v>0.01780476578380485</v>
       </c>
       <c r="D66">
-        <v>0.01569762509308604</v>
+        <v>0.1066217490057877</v>
       </c>
       <c r="E66">
-        <v>-0.04397139784781952</v>
+        <v>0.009945911525637167</v>
       </c>
       <c r="F66">
-        <v>0.0549340550715734</v>
+        <v>-0.0394781034733464</v>
       </c>
       <c r="G66">
-        <v>0.008603419402497309</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>-0.03592099308224874</v>
+      </c>
+      <c r="H66">
+        <v>0.08269177134205297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.01022424363281354</v>
+        <v>0.04688676236271347</v>
       </c>
       <c r="C67">
-        <v>-0.005549850715255874</v>
+        <v>0.01836270235626543</v>
       </c>
       <c r="D67">
-        <v>0.004857040623884827</v>
+        <v>0.0125222633565992</v>
       </c>
       <c r="E67">
-        <v>0.03650842756509887</v>
+        <v>0.003111281275702841</v>
       </c>
       <c r="F67">
-        <v>0.02095647638518268</v>
+        <v>-0.01894219411022215</v>
       </c>
       <c r="G67">
-        <v>0.003539126570072981</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>-0.01264337340828049</v>
+      </c>
+      <c r="H67">
+        <v>0.04569270723765172</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.07472006615704604</v>
+        <v>0.162837969157768</v>
       </c>
       <c r="C68">
-        <v>0.06710253967644086</v>
+        <v>-0.02435575660663326</v>
       </c>
       <c r="D68">
-        <v>-0.1303616141041043</v>
+        <v>-0.233369142820048</v>
       </c>
       <c r="E68">
-        <v>0.1474571570986654</v>
+        <v>0.007287202471199523</v>
       </c>
       <c r="F68">
-        <v>0.04907707919397127</v>
+        <v>0.04024195964686299</v>
       </c>
       <c r="G68">
-        <v>-0.05561710017678765</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>-0.02910491838394835</v>
+      </c>
+      <c r="H68">
+        <v>-0.04908486899517146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.0642436485052522</v>
+        <v>0.0613325456587935</v>
       </c>
       <c r="C69">
-        <v>-0.04319621680529805</v>
+        <v>0.02963758858421395</v>
       </c>
       <c r="D69">
-        <v>-0.01537266033787634</v>
+        <v>0.04500418787319662</v>
       </c>
       <c r="E69">
-        <v>-0.02133626356453848</v>
+        <v>-0.0002418318431817343</v>
       </c>
       <c r="F69">
-        <v>0.0301725092814597</v>
+        <v>-0.02870174165142033</v>
       </c>
       <c r="G69">
-        <v>0.07338200136894855</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>0.01256824494054494</v>
+      </c>
+      <c r="H69">
+        <v>0.00718119632660555</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2310,194 +2520,221 @@
       <c r="G70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.07888408266694297</v>
+        <v>0.1517167582752866</v>
       </c>
       <c r="C71">
-        <v>0.06843360506438992</v>
+        <v>-0.01094319370403294</v>
       </c>
       <c r="D71">
-        <v>-0.1152833904319196</v>
+        <v>-0.1936149864656412</v>
       </c>
       <c r="E71">
-        <v>0.2010798586238375</v>
+        <v>0.01470815866108792</v>
       </c>
       <c r="F71">
-        <v>0.04414429900879446</v>
+        <v>0.0477452715382331</v>
       </c>
       <c r="G71">
-        <v>0.01961672030243711</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>-0.03298410027366471</v>
+      </c>
+      <c r="H71">
+        <v>-0.0226180684494603</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1139495778661393</v>
+        <v>0.07818197437676452</v>
       </c>
       <c r="C72">
-        <v>-0.06706896825929937</v>
+        <v>0.04024391187906387</v>
       </c>
       <c r="D72">
-        <v>-0.02580859200887438</v>
+        <v>0.07737281698610261</v>
       </c>
       <c r="E72">
-        <v>-0.04474098149534586</v>
+        <v>0.01675749380723317</v>
       </c>
       <c r="F72">
-        <v>0.07405027911104638</v>
+        <v>-0.06639945562282744</v>
       </c>
       <c r="G72">
-        <v>-0.1159987394775561</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
+        <v>-0.02152697431240877</v>
+      </c>
+      <c r="H72">
+        <v>0.1320256465440129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2158543299903679</v>
+        <v>0.2558179727387097</v>
       </c>
       <c r="C73">
-        <v>-0.1123533583561859</v>
+        <v>0.04317460727815089</v>
       </c>
       <c r="D73">
-        <v>0.01315669497869006</v>
+        <v>0.09250703760989326</v>
       </c>
       <c r="E73">
-        <v>0.1815877189303354</v>
+        <v>0.0921559187792801</v>
       </c>
       <c r="F73">
-        <v>0.2124297079000971</v>
+        <v>-0.06240430949766421</v>
       </c>
       <c r="G73">
-        <v>-0.461669478423705</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
+        <v>-0.04504754359565696</v>
+      </c>
+      <c r="H73">
+        <v>0.4816410115962939</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1347077733520985</v>
+        <v>0.1175153610552225</v>
       </c>
       <c r="C74">
-        <v>-0.03555490290463847</v>
+        <v>0.05443068343723655</v>
       </c>
       <c r="D74">
-        <v>-0.009344680963811011</v>
+        <v>0.1073716910953752</v>
       </c>
       <c r="E74">
-        <v>-0.05128445922683836</v>
+        <v>-0.007859682651986702</v>
       </c>
       <c r="F74">
-        <v>-0.07569665423430434</v>
+        <v>-0.03694458613931453</v>
       </c>
       <c r="G74">
-        <v>0.01003971310618083</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
+        <v>0.06026819479245663</v>
+      </c>
+      <c r="H74">
+        <v>-0.02708427443020854</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.226460275266277</v>
+        <v>0.2276419815169625</v>
       </c>
       <c r="C75">
-        <v>-0.1027807783410833</v>
+        <v>0.1005374439135072</v>
       </c>
       <c r="D75">
-        <v>-0.07858704479366556</v>
+        <v>0.1614208441754849</v>
       </c>
       <c r="E75">
-        <v>-0.1112225658887464</v>
+        <v>0.009754288174492603</v>
       </c>
       <c r="F75">
-        <v>-0.09129552036005782</v>
+        <v>-0.09880580432053189</v>
       </c>
       <c r="G75">
-        <v>0.02187653367730139</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>0.1233129158191781</v>
+      </c>
+      <c r="H75">
+        <v>-0.1369824226071267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.2771514094292261</v>
+        <v>0.1918295625719093</v>
       </c>
       <c r="C76">
-        <v>-0.09323850583916073</v>
+        <v>0.09316428800563709</v>
       </c>
       <c r="D76">
-        <v>-0.1076843313973258</v>
+        <v>0.1610856171525675</v>
       </c>
       <c r="E76">
-        <v>-0.1648174198353124</v>
+        <v>-0.03769991438116049</v>
       </c>
       <c r="F76">
-        <v>-0.1642730030766082</v>
+        <v>-0.09292159225257773</v>
       </c>
       <c r="G76">
-        <v>-0.006089520126804614</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7">
+        <v>0.115399384769276</v>
+      </c>
+      <c r="H76">
+        <v>-0.1335662085845672</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1273990087983673</v>
+        <v>0.07064785706892059</v>
       </c>
       <c r="C77">
-        <v>-0.06065139944295788</v>
+        <v>0.01479634600438341</v>
       </c>
       <c r="D77">
-        <v>0.09819682082791581</v>
+        <v>0.07814423733043999</v>
       </c>
       <c r="E77">
-        <v>-0.05197491466416535</v>
+        <v>0.01637376576702109</v>
       </c>
       <c r="F77">
-        <v>0.1931107432942769</v>
+        <v>0.01431223349859009</v>
       </c>
       <c r="G77">
-        <v>0.2602562926334089</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>-0.08120036134410613</v>
+      </c>
+      <c r="H77">
+        <v>0.01231364860072631</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.07517085178351432</v>
+        <v>0.03962954255450325</v>
       </c>
       <c r="C78">
-        <v>-0.04287860799432537</v>
+        <v>0.01546954535150782</v>
       </c>
       <c r="D78">
-        <v>0.0504018455002789</v>
+        <v>0.06740156158856361</v>
       </c>
       <c r="E78">
-        <v>-0.07476233808248366</v>
+        <v>-0.0005158194609499132</v>
       </c>
       <c r="F78">
-        <v>0.1130273077223612</v>
+        <v>-0.02185871563238305</v>
       </c>
       <c r="G78">
-        <v>0.03191975301648096</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>-0.06426660830907721</v>
+      </c>
+      <c r="H78">
+        <v>0.08450059520401222</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2517,56 +2754,65 @@
       <c r="G79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.2653191595446089</v>
+        <v>0.1389263764828629</v>
       </c>
       <c r="C80">
-        <v>0.8695621043037914</v>
+        <v>0.03685633395819266</v>
       </c>
       <c r="D80">
-        <v>0.09496699982641378</v>
+        <v>0.08174247565945314</v>
       </c>
       <c r="E80">
-        <v>-0.3499915027384449</v>
+        <v>-0.9336475495573067</v>
       </c>
       <c r="F80">
-        <v>0.06111282449448045</v>
+        <v>0.2181479204931927</v>
       </c>
       <c r="G80">
-        <v>-0.121209686302894</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7">
+        <v>-0.1599752241841629</v>
+      </c>
+      <c r="H80">
+        <v>0.00378721367166697</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1757856216972715</v>
+        <v>0.1527093969802442</v>
       </c>
       <c r="C81">
-        <v>-0.07176557395274782</v>
+        <v>0.06600247610167582</v>
       </c>
       <c r="D81">
-        <v>-0.08065112055563663</v>
+        <v>0.1042079111905725</v>
       </c>
       <c r="E81">
-        <v>-0.09284221987415822</v>
+        <v>-0.009988720448666687</v>
       </c>
       <c r="F81">
-        <v>-0.1045225725953721</v>
+        <v>-0.06694616513542338</v>
       </c>
       <c r="G81">
-        <v>-0.01230352052908393</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>0.08117018390513826</v>
+      </c>
+      <c r="H81">
+        <v>-0.08884191661198844</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2586,33 +2832,39 @@
       <c r="G82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.03262205309835812</v>
+        <v>0.0325950942609837</v>
       </c>
       <c r="C83">
-        <v>-0.02423635595719397</v>
+        <v>0.006517919965213928</v>
       </c>
       <c r="D83">
-        <v>0.01674754811249355</v>
+        <v>0.02412151568279936</v>
       </c>
       <c r="E83">
-        <v>0.003671942350846071</v>
+        <v>0.008400815288496738</v>
       </c>
       <c r="F83">
-        <v>0.06820149622224962</v>
+        <v>-0.01033078033659504</v>
       </c>
       <c r="G83">
-        <v>0.0371338331028588</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>-0.04654848750919566</v>
+      </c>
+      <c r="H83">
+        <v>0.04077827901692982</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2632,263 +2884,299 @@
       <c r="G84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.2604677901563164</v>
+        <v>0.213519055894418</v>
       </c>
       <c r="C85">
-        <v>-0.09038337392465647</v>
+        <v>0.08518320255844636</v>
       </c>
       <c r="D85">
-        <v>-0.08108425432377861</v>
+        <v>0.1693295154677487</v>
       </c>
       <c r="E85">
-        <v>-0.1257603117384705</v>
+        <v>0.003991127341244798</v>
       </c>
       <c r="F85">
-        <v>-0.1104373071751727</v>
+        <v>-0.08197735272444469</v>
       </c>
       <c r="G85">
-        <v>0.02591416098236961</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>0.1338151754932634</v>
+      </c>
+      <c r="H85">
+        <v>-0.09702882553699506</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.005069641462096641</v>
+        <v>0.02636131466449998</v>
       </c>
       <c r="C86">
-        <v>-0.0004361028297576609</v>
+        <v>0.004644189484224636</v>
       </c>
       <c r="D86">
-        <v>0.03297285150103356</v>
+        <v>0.03613856470456882</v>
       </c>
       <c r="E86">
-        <v>-0.0268148766053864</v>
+        <v>-0.0006682075890535209</v>
       </c>
       <c r="F86">
-        <v>0.07749409949324688</v>
+        <v>0.001857231024401191</v>
       </c>
       <c r="G86">
-        <v>0.06225241415309944</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>-0.05648566300229151</v>
+      </c>
+      <c r="H86">
+        <v>0.0937707569325674</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.04222374892183552</v>
+        <v>0.02613018241740656</v>
       </c>
       <c r="C87">
-        <v>0.0005306180947288079</v>
+        <v>0.005359382922215605</v>
       </c>
       <c r="D87">
-        <v>0.02311046484324979</v>
+        <v>0.0471272804418259</v>
       </c>
       <c r="E87">
-        <v>-0.01093751525851033</v>
+        <v>-0.003395055213144607</v>
       </c>
       <c r="F87">
-        <v>0.1134136957984293</v>
+        <v>-0.005751768783656756</v>
       </c>
       <c r="G87">
-        <v>0.04089469411264227</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>-0.08051641541976799</v>
+      </c>
+      <c r="H87">
+        <v>0.07985720364585873</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.01196218696822999</v>
+        <v>0.04343094423079399</v>
       </c>
       <c r="C88">
-        <v>0.0109588165531871</v>
+        <v>-0.009323345814827728</v>
       </c>
       <c r="D88">
-        <v>-0.01303432182316506</v>
+        <v>0.01998912182392901</v>
       </c>
       <c r="E88">
-        <v>-0.01656436346477733</v>
+        <v>-0.01248602742507127</v>
       </c>
       <c r="F88">
-        <v>0.000378009475319349</v>
+        <v>-0.01899836256140754</v>
       </c>
       <c r="G88">
-        <v>0.06517027100816158</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>0.001538826551731277</v>
+      </c>
+      <c r="H88">
+        <v>0.01912845111741145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1104343428977527</v>
+        <v>0.2640973925282312</v>
       </c>
       <c r="C89">
-        <v>0.1020117535035177</v>
+        <v>-0.02173676576933464</v>
       </c>
       <c r="D89">
-        <v>-0.1962951549258563</v>
+        <v>-0.3467215514403676</v>
       </c>
       <c r="E89">
-        <v>0.2483547123041497</v>
+        <v>0.01834927187879613</v>
       </c>
       <c r="F89">
-        <v>0.0870024418407483</v>
+        <v>0.02726401786782767</v>
       </c>
       <c r="G89">
-        <v>0.02117197806756269</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>-0.0001880700999917493</v>
+      </c>
+      <c r="H89">
+        <v>0.008830458241284873</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.09303672927479242</v>
+        <v>0.2139850640775849</v>
       </c>
       <c r="C90">
-        <v>0.1457060993018874</v>
+        <v>-0.02095520108952992</v>
       </c>
       <c r="D90">
-        <v>-0.2167100319313978</v>
+        <v>-0.3142030213255477</v>
       </c>
       <c r="E90">
-        <v>0.2591916289062852</v>
+        <v>0.009940954943643663</v>
       </c>
       <c r="F90">
-        <v>0.03675076643477786</v>
+        <v>0.05255024564948307</v>
       </c>
       <c r="G90">
-        <v>0.05966134934899405</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>0.009611643207476058</v>
+      </c>
+      <c r="H90">
+        <v>-0.05384748786974351</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.305418369566315</v>
+        <v>0.227442731443787</v>
       </c>
       <c r="C91">
-        <v>-0.1326108516009121</v>
+        <v>0.09720923596207359</v>
       </c>
       <c r="D91">
-        <v>-0.08385020917748166</v>
+        <v>0.149888867949406</v>
       </c>
       <c r="E91">
-        <v>-0.118463726699299</v>
+        <v>0.01031148357052632</v>
       </c>
       <c r="F91">
-        <v>-0.2267975170414041</v>
+        <v>-0.0829572089262839</v>
       </c>
       <c r="G91">
-        <v>-0.01462651622603722</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>0.14275104940833</v>
+      </c>
+      <c r="H91">
+        <v>-0.1693994569121393</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1729557449528178</v>
+        <v>0.2558701896042264</v>
       </c>
       <c r="C92">
-        <v>0.09253689205557031</v>
+        <v>0.04731093612482076</v>
       </c>
       <c r="D92">
-        <v>-0.3770301985760883</v>
+        <v>-0.2386229489392266</v>
       </c>
       <c r="E92">
-        <v>0.1994020366721993</v>
+        <v>3.574813657282508e-05</v>
       </c>
       <c r="F92">
-        <v>-0.1018294423260151</v>
+        <v>-0.01530523913999</v>
       </c>
       <c r="G92">
-        <v>0.4347364524113754</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>-0.02514082232965307</v>
+      </c>
+      <c r="H92">
+        <v>-0.1160062542159211</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.09772912062338383</v>
+        <v>0.2394044434520859</v>
       </c>
       <c r="C93">
-        <v>0.1317766894748247</v>
+        <v>-0.01137260629441023</v>
       </c>
       <c r="D93">
-        <v>-0.2522764826978964</v>
+        <v>-0.3218027935545443</v>
       </c>
       <c r="E93">
-        <v>0.3607317656065327</v>
+        <v>0.03214092026514592</v>
       </c>
       <c r="F93">
-        <v>-0.006094485669002255</v>
+        <v>0.05514861250718684</v>
       </c>
       <c r="G93">
-        <v>-0.0305723439015556</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>0.005191364179493341</v>
+      </c>
+      <c r="H93">
+        <v>0.01096900573686057</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.2987904111659936</v>
+        <v>0.2788960292327711</v>
       </c>
       <c r="C94">
-        <v>-0.1615502216341747</v>
+        <v>0.0929446220323881</v>
       </c>
       <c r="D94">
-        <v>-0.1747915663489955</v>
+        <v>0.1450402852539639</v>
       </c>
       <c r="E94">
-        <v>-0.1579800894447979</v>
+        <v>0.03011287354691319</v>
       </c>
       <c r="F94">
-        <v>-0.1616777234281559</v>
+        <v>-0.1834411411248563</v>
       </c>
       <c r="G94">
-        <v>-0.04104968020646084</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>0.2375010752207089</v>
+      </c>
+      <c r="H94">
+        <v>-0.2838875286148955</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.04612096463290953</v>
+        <v>0.05472251497022975</v>
       </c>
       <c r="C95">
-        <v>-0.04711217066105632</v>
+        <v>0.03534218965119112</v>
       </c>
       <c r="D95">
-        <v>0.05178664544008495</v>
+        <v>0.08544387733420543</v>
       </c>
       <c r="E95">
-        <v>-0.05257807307891444</v>
+        <v>0.08272412249681707</v>
       </c>
       <c r="F95">
-        <v>0.06521887784213805</v>
+        <v>0.005898098148876442</v>
       </c>
       <c r="G95">
-        <v>0.2210633037515619</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
+        <v>-0.04955269523267466</v>
+      </c>
+      <c r="H95">
+        <v>0.05185858630314676</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2908,10 +3196,13 @@
       <c r="G96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2931,33 +3222,39 @@
       <c r="G97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1614606447305397</v>
+        <v>0.1827994938381258</v>
       </c>
       <c r="C98">
-        <v>-0.05255342304065923</v>
+        <v>0.05678707535438977</v>
       </c>
       <c r="D98">
-        <v>0.02179920340831453</v>
+        <v>0.03758717419103375</v>
       </c>
       <c r="E98">
-        <v>0.1418965628566166</v>
+        <v>0.05676291960291751</v>
       </c>
       <c r="F98">
-        <v>0.1279218428559092</v>
+        <v>-0.009335645346342177</v>
       </c>
       <c r="G98">
-        <v>-0.3622457089926863</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7">
+        <v>-0.07886808832955196</v>
+      </c>
+      <c r="H98">
+        <v>0.3428047540471894</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2977,10 +3274,13 @@
       <c r="G99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3000,97 +3300,112 @@
       <c r="G100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.005669379026311159</v>
+        <v>0.01760002232231762</v>
       </c>
       <c r="C101">
-        <v>-0.01014655801998569</v>
+        <v>0.0005656354616224891</v>
       </c>
       <c r="D101">
-        <v>0.02092385197230623</v>
+        <v>0.01385680481531537</v>
       </c>
       <c r="E101">
-        <v>-0.06791155382961647</v>
+        <v>-0.0030520536641142</v>
       </c>
       <c r="F101">
-        <v>0.1744624170454311</v>
+        <v>-0.01926100940925062</v>
       </c>
       <c r="G101">
-        <v>0.06258841807450453</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>-0.1004858004813498</v>
+      </c>
+      <c r="H101">
+        <v>-0.02157850805587628</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1131146517071699</v>
+        <v>0.1013913708123108</v>
       </c>
       <c r="C102">
-        <v>-0.04653350807044206</v>
+        <v>0.03370287610040753</v>
       </c>
       <c r="D102">
-        <v>-0.03044016852755721</v>
+        <v>0.08215911414887937</v>
       </c>
       <c r="E102">
-        <v>-0.07385891992407147</v>
+        <v>-0.002734649805719763</v>
       </c>
       <c r="F102">
-        <v>-0.07951051409163527</v>
+        <v>-0.04684778141219186</v>
       </c>
       <c r="G102">
-        <v>-0.00255005724215885</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
+        <v>0.07341833115980992</v>
+      </c>
+      <c r="H102">
+        <v>-0.06482441155721633</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B103">
-        <v>0.04337763028711204</v>
+        <v>0.01498161659768663</v>
       </c>
       <c r="C103">
-        <v>-0.008586874405874493</v>
+        <v>0.006198341078973948</v>
       </c>
       <c r="D103">
-        <v>-0.007398089884428696</v>
+        <v>0.01543372941647452</v>
       </c>
       <c r="E103">
-        <v>-0.05339920177841607</v>
+        <v>-0.008331798076403904</v>
       </c>
       <c r="F103">
-        <v>0.009856812874871224</v>
+        <v>-0.0072133984474674</v>
       </c>
       <c r="G103">
-        <v>0.04135112069146878</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>-0.001757320142920904</v>
+      </c>
+      <c r="H103">
+        <v>-0.01216806968368253</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B104">
-        <v>0</v>
+        <v>0.1864709104186041</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>-0.9562583927420277</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>0.1466785057907118</v>
       </c>
       <c r="E104">
-        <v>0</v>
+        <v>-0.0287437962415895</v>
       </c>
       <c r="F104">
-        <v>0</v>
+        <v>-0.130382969518524</v>
       </c>
       <c r="G104">
-        <v>0</v>
+        <v>0.01429645842499838</v>
+      </c>
+      <c r="H104">
+        <v>-0.04878568372587224</v>
       </c>
     </row>
   </sheetData>
